--- a/データベース設計/DB物理設計_baserCore.xlsx
+++ b/データベース設計/DB物理設計_baserCore.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuring/Documents/Projects/basercms-docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryuring/Documents/Projects/basercms-docs/データベース設計/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23460" tabRatio="836" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" tabRatio="836" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="28" r:id="rId1"/>
@@ -1370,9 +1370,6 @@
     <t>baserCMS</t>
   </si>
   <si>
-    <t>contents</t>
-  </si>
-  <si>
     <t>widget_areas</t>
   </si>
   <si>
@@ -4108,6 +4105,10 @@
   </si>
   <si>
     <t>nada-icons</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>site_indices</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -5342,6 +5343,135 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="20" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5351,8 +5481,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -5363,15 +5499,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5380,132 +5507,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="20" fontId="3" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -5947,34 +5948,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="164">
+      <c r="A1" s="151">
         <v>42600</v>
       </c>
       <c r="B1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
   </sheetData>
@@ -6013,27 +6014,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="131" t="s">
+        <v>453</v>
+      </c>
+      <c r="E3" s="179" t="s">
         <v>454</v>
       </c>
-      <c r="E3" s="136" t="s">
-        <v>455</v>
-      </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -6042,20 +6043,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="131" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>456</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>455</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -6077,28 +6078,28 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
-        <v>457</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="180" t="s">
+        <v>456</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>177</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+        <v>94</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>13</v>
@@ -6110,10 +6111,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="28" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>459</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>460</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>15</v>
@@ -6122,7 +6123,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="28" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="J7" s="28" t="s">
         <v>17</v>
@@ -6140,31 +6141,31 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>464</v>
       </c>
       <c r="F8" s="18">
         <v>8</v>
       </c>
       <c r="G8" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>465</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="20" t="s">
         <v>466</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>467</v>
       </c>
       <c r="J8" s="21">
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -6177,10 +6178,10 @@
         <v>71</v>
       </c>
       <c r="D9" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="17" t="s">
         <v>468</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>469</v>
       </c>
       <c r="F9" s="18">
         <v>50</v>
@@ -6195,7 +6196,7 @@
         <v>48</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>48</v>
@@ -6208,10 +6209,10 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>471</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>472</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>31</v>
@@ -6229,7 +6230,7 @@
         <v>48</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>48</v>
@@ -6242,7 +6243,7 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>70</v>
@@ -6263,7 +6264,7 @@
         <v>48</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>48</v>
@@ -6279,10 +6280,10 @@
         <v>85</v>
       </c>
       <c r="D12" s="37" t="s">
+        <v>475</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>476</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>477</v>
       </c>
       <c r="F12" s="38">
         <v>1</v>
@@ -6294,10 +6295,10 @@
         <v>48</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>48</v>
@@ -6310,13 +6311,13 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D13" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>479</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>480</v>
       </c>
       <c r="F13" s="38">
         <v>1</v>
@@ -6328,10 +6329,10 @@
         <v>48</v>
       </c>
       <c r="I13" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K13" s="41" t="s">
         <v>48</v>
@@ -6344,13 +6345,13 @@
       </c>
       <c r="B14" s="34"/>
       <c r="C14" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>481</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>482</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>483</v>
       </c>
       <c r="F14" s="6">
         <v>8</v>
@@ -6363,7 +6364,7 @@
         <v>48</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>48</v>
@@ -6379,7 +6380,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>2</v>
@@ -6397,7 +6398,7 @@
         <v>48</v>
       </c>
       <c r="J15" s="94" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>48</v>
@@ -6413,28 +6414,28 @@
         <v>20</v>
       </c>
       <c r="D16" s="65" t="s">
+        <v>485</v>
+      </c>
+      <c r="E16" s="65" t="s">
         <v>486</v>
       </c>
-      <c r="E16" s="65" t="s">
+      <c r="F16" s="66" t="s">
         <v>487</v>
       </c>
-      <c r="F16" s="66" t="s">
+      <c r="G16" s="66" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="66" t="s">
         <v>488</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="I16" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="H16" s="66" t="s">
-        <v>489</v>
-      </c>
-      <c r="I16" s="97" t="s">
-        <v>489</v>
-      </c>
       <c r="J16" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K16" s="83" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L16" s="84"/>
     </row>
@@ -6524,6 +6525,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6534,7 +6540,7 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="150" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="150" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -6560,27 +6566,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -6589,20 +6595,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -6624,16 +6630,16 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F6" s="134"/>
       <c r="G6" s="134"/>
@@ -6702,7 +6708,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -6711,7 +6717,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -6721,16 +6727,16 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>0</v>
@@ -6755,13 +6761,13 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" s="18">
         <v>50</v>
@@ -6776,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -6789,10 +6795,10 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="17" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>31</v>
@@ -6810,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -6823,10 +6829,10 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="17" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E12" s="17" t="s">
         <v>31</v>
@@ -6841,10 +6847,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>0</v>
@@ -6857,10 +6863,10 @@
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="17" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>31</v>
@@ -6875,10 +6881,10 @@
         <v>0</v>
       </c>
       <c r="I13" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>0</v>
@@ -6891,10 +6897,10 @@
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E14" s="17" t="s">
         <v>31</v>
@@ -6909,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="K14" s="22" t="s">
         <v>0</v>
@@ -6925,13 +6931,13 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F15" s="18">
         <v>1</v>
@@ -6943,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="J15" s="21">
         <v>1</v>
@@ -6959,13 +6965,13 @@
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="17" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F16" s="18">
         <v>1</v>
@@ -6977,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="J16" s="21">
         <v>1</v>
@@ -6993,13 +6999,13 @@
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="17" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F17" s="18">
         <v>1</v>
@@ -7011,7 +7017,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J17" s="21">
         <v>1</v>
@@ -7027,10 +7033,10 @@
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>2</v>
@@ -7042,13 +7048,13 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I18" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="189" t="s">
-        <v>580</v>
+      <c r="J18" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K18" s="11" t="s">
         <v>0</v>
@@ -7061,10 +7067,10 @@
       </c>
       <c r="B19" s="64"/>
       <c r="C19" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D19" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E19" s="65" t="s">
         <v>2</v>
@@ -7081,8 +7087,8 @@
       <c r="I19" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="190" t="s">
-        <v>581</v>
+      <c r="J19" s="177" t="s">
+        <v>580</v>
       </c>
       <c r="K19" s="83" t="s">
         <v>0</v>
@@ -7119,6 +7125,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7129,8 +7140,8 @@
   </sheetPr>
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="130" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="130" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7155,27 +7166,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -7184,20 +7195,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -7219,24 +7230,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="56" t="s">
+        <v>622</v>
+      </c>
+      <c r="E6" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="56" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -7297,7 +7308,7 @@
         <v>47</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -7317,7 +7328,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>31</v>
@@ -7367,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K10" s="22"/>
       <c r="L10" s="61"/>
@@ -7403,197 +7414,197 @@
       </c>
       <c r="K11" s="22"/>
       <c r="L11" s="61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="166">
+      <c r="A12" s="153">
         <v>5</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="168" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="155" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" s="155" t="s">
         <v>497</v>
       </c>
-      <c r="D12" s="168" t="s">
-        <v>498</v>
-      </c>
-      <c r="E12" s="168" t="s">
+      <c r="E12" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="169">
+      <c r="F12" s="156">
         <v>8</v>
       </c>
-      <c r="G12" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="171"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="173" t="s">
+      <c r="G12" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="158"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A13" s="153">
+        <v>6</v>
+      </c>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155" t="s">
+        <v>499</v>
+      </c>
+      <c r="D13" s="155" t="s">
+        <v>500</v>
+      </c>
+      <c r="E13" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="156">
+        <v>8</v>
+      </c>
+      <c r="G13" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="158"/>
+      <c r="K13" s="159"/>
+      <c r="L13" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A14" s="153">
+        <v>7</v>
+      </c>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="155" t="s">
+        <v>502</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="156">
+        <v>8</v>
+      </c>
+      <c r="G14" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="158"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A15" s="153">
+        <v>8</v>
+      </c>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155" t="s">
+        <v>503</v>
+      </c>
+      <c r="D15" s="155" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="156">
+        <v>8</v>
+      </c>
+      <c r="G15" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="158"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="153">
+        <v>9</v>
+      </c>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155" t="s">
+        <v>504</v>
+      </c>
+      <c r="D16" s="155" t="s">
+        <v>505</v>
+      </c>
+      <c r="E16" s="155" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="156">
+        <v>8</v>
+      </c>
+      <c r="G16" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="158"/>
+      <c r="K16" s="159"/>
+      <c r="L16" s="160" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="161"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="163" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="163" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="164">
+        <v>50</v>
+      </c>
+      <c r="G17" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="166"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="168" t="s">
         <v>507</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A13" s="166">
-        <v>6</v>
-      </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="168" t="s">
-        <v>500</v>
-      </c>
-      <c r="D13" s="168" t="s">
-        <v>501</v>
-      </c>
-      <c r="E13" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="169">
-        <v>8</v>
-      </c>
-      <c r="G13" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="171"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="173" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A14" s="166">
-        <v>7</v>
-      </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="168" t="s">
-        <v>502</v>
-      </c>
-      <c r="D14" s="168" t="s">
-        <v>503</v>
-      </c>
-      <c r="E14" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="169">
-        <v>8</v>
-      </c>
-      <c r="G14" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="171"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="173" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A15" s="166">
-        <v>8</v>
-      </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="168" t="s">
-        <v>504</v>
-      </c>
-      <c r="D15" s="168" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="169">
-        <v>8</v>
-      </c>
-      <c r="G15" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="171"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A16" s="166">
-        <v>9</v>
-      </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="168" t="s">
-        <v>505</v>
-      </c>
-      <c r="D16" s="168" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="168" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="169">
-        <v>8</v>
-      </c>
-      <c r="G16" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="170" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="171"/>
-      <c r="K16" s="172"/>
-      <c r="L16" s="173" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A17" s="174"/>
-      <c r="B17" s="175"/>
-      <c r="C17" s="176" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="176" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="176" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="177">
-        <v>50</v>
-      </c>
-      <c r="G17" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="178" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="179"/>
-      <c r="K17" s="180"/>
-      <c r="L17" s="181" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7623,7 +7634,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K18" s="22"/>
       <c r="L18" s="61"/>
@@ -7634,7 +7645,7 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>43</v>
@@ -7655,7 +7666,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K19" s="22"/>
       <c r="L19" s="61"/>
@@ -7687,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" s="22"/>
       <c r="L20" s="61"/>
@@ -7698,7 +7709,7 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>44</v>
@@ -7716,7 +7727,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -7730,10 +7741,10 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>31</v>
@@ -7748,14 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J22" s="8">
         <v>0.1</v>
       </c>
       <c r="K22" s="22"/>
       <c r="L22" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -7785,7 +7796,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K23" s="9"/>
       <c r="L23" s="61"/>
@@ -7817,9 +7828,9 @@
         <v>0</v>
       </c>
       <c r="J24" s="95" t="s">
-        <v>113</v>
-      </c>
-      <c r="K24" s="165"/>
+        <v>112</v>
+      </c>
+      <c r="K24" s="152"/>
       <c r="L24" s="69"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.15">
@@ -7853,6 +7864,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -7889,27 +7905,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -7918,20 +7934,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -7953,24 +7969,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="182" t="s">
         <v>272</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>273</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -8016,7 +8032,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -8031,7 +8047,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -8048,7 +8064,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -8066,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>29</v>
@@ -8082,7 +8098,7 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>72</v>
@@ -8103,10 +8119,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L10" s="61"/>
     </row>
@@ -8137,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -8171,7 +8187,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="73" t="s">
         <v>0</v>
@@ -8186,7 +8202,7 @@
     </row>
     <row r="15" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="98"/>
     </row>
@@ -8196,10 +8212,10 @@
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>1</v>
@@ -8211,13 +8227,13 @@
         <v>4</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I16" s="102" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="120" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="103"/>
@@ -8228,10 +8244,10 @@
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E17" s="105" t="s">
         <v>1</v>
@@ -8240,7 +8256,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="115" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H17" s="115" t="s">
         <v>0</v>
@@ -8249,7 +8265,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K17" s="105"/>
       <c r="L17" s="107"/>
@@ -8260,10 +8276,10 @@
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="105" t="s">
         <v>1</v>
@@ -8281,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K18" s="105"/>
       <c r="L18" s="107"/>
@@ -8292,10 +8308,10 @@
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E19" s="105" t="s">
         <v>1</v>
@@ -8310,10 +8326,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K19" s="105"/>
       <c r="L19" s="107"/>
@@ -8324,10 +8340,10 @@
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20" s="105" t="s">
         <v>1</v>
@@ -8342,10 +8358,10 @@
         <v>0</v>
       </c>
       <c r="I20" s="113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J20" s="113" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="107"/>
@@ -8356,10 +8372,10 @@
       </c>
       <c r="B21" s="105"/>
       <c r="C21" s="105" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E21" s="105" t="s">
         <v>1</v>
@@ -8374,10 +8390,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" s="113" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K21" s="105"/>
       <c r="L21" s="107"/>
@@ -8388,10 +8404,10 @@
       </c>
       <c r="B22" s="105"/>
       <c r="C22" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E22" s="105" t="s">
         <v>1</v>
@@ -8400,13 +8416,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="106" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J22" s="113">
         <v>1</v>
@@ -8420,10 +8436,10 @@
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="105" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E23" s="105" t="s">
         <v>1</v>
@@ -8432,13 +8448,13 @@
         <v>0</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="106" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J23" s="113">
         <v>0</v>
@@ -8452,10 +8468,10 @@
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="105" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E24" s="105" t="s">
         <v>1</v>
@@ -8464,16 +8480,16 @@
         <v>0</v>
       </c>
       <c r="G24" s="115" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H24" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I24" s="106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J24" s="113" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="107"/>
@@ -8484,10 +8500,10 @@
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="105" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E25" s="105" t="s">
         <v>1</v>
@@ -8496,16 +8512,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K25" s="105"/>
       <c r="L25" s="107"/>
@@ -8516,10 +8532,10 @@
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="105" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E26" s="105" t="s">
         <v>1</v>
@@ -8534,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K26" s="105"/>
       <c r="L26" s="107"/>
@@ -8548,10 +8564,10 @@
       </c>
       <c r="B27" s="105"/>
       <c r="C27" s="105" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E27" s="105" t="s">
         <v>1</v>
@@ -8569,7 +8585,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K27" s="105"/>
       <c r="L27" s="107"/>
@@ -8580,10 +8596,10 @@
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="105" t="s">
+        <v>381</v>
+      </c>
+      <c r="D28" s="105" t="s">
         <v>382</v>
-      </c>
-      <c r="D28" s="105" t="s">
-        <v>383</v>
       </c>
       <c r="E28" s="105" t="s">
         <v>1</v>
@@ -8612,10 +8628,10 @@
       </c>
       <c r="B29" s="105"/>
       <c r="C29" s="105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" s="105" t="s">
         <v>1</v>
@@ -8630,10 +8646,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J29" s="113" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K29" s="105"/>
       <c r="L29" s="107"/>
@@ -8644,10 +8660,10 @@
       </c>
       <c r="B30" s="105"/>
       <c r="C30" s="105" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E30" s="105" t="s">
         <v>1</v>
@@ -8656,13 +8672,13 @@
         <v>0</v>
       </c>
       <c r="G30" s="115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H30" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I30" s="113" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="J30" s="113">
         <v>10</v>
@@ -8676,10 +8692,10 @@
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="105" t="s">
         <v>1</v>
@@ -8697,38 +8713,38 @@
         <v>0</v>
       </c>
       <c r="J31" s="113" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K31" s="105"/>
       <c r="L31" s="107"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A32" s="182"/>
-      <c r="B32" s="183"/>
-      <c r="C32" s="183"/>
-      <c r="D32" s="183" t="s">
+      <c r="A32" s="169"/>
+      <c r="B32" s="170"/>
+      <c r="C32" s="170"/>
+      <c r="D32" s="170" t="s">
+        <v>199</v>
+      </c>
+      <c r="E32" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" s="173" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" s="174" t="s">
         <v>200</v>
       </c>
-      <c r="E32" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="G32" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="H32" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I32" s="186" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" s="187" t="s">
-        <v>201</v>
-      </c>
-      <c r="K32" s="183"/>
-      <c r="L32" s="188"/>
+      <c r="K32" s="170"/>
+      <c r="L32" s="175"/>
     </row>
     <row r="33" spans="1:12" ht="39" x14ac:dyDescent="0.15">
       <c r="A33" s="104">
@@ -8737,7 +8753,7 @@
       <c r="B33" s="105"/>
       <c r="C33" s="112"/>
       <c r="D33" s="105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="105" t="s">
         <v>1</v>
@@ -8755,40 +8771,40 @@
         <v>0</v>
       </c>
       <c r="J33" s="113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K33" s="105"/>
       <c r="L33" s="107"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A34" s="182"/>
-      <c r="B34" s="183"/>
-      <c r="C34" s="183" t="s">
-        <v>232</v>
-      </c>
-      <c r="D34" s="183" t="s">
-        <v>204</v>
-      </c>
-      <c r="E34" s="183" t="s">
+      <c r="A34" s="169"/>
+      <c r="B34" s="170"/>
+      <c r="C34" s="170" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="170" t="s">
+        <v>203</v>
+      </c>
+      <c r="E34" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F34" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="185" t="s">
-        <v>143</v>
-      </c>
-      <c r="H34" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I34" s="186" t="s">
-        <v>154</v>
-      </c>
-      <c r="J34" s="187">
+      <c r="F34" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="172" t="s">
+        <v>142</v>
+      </c>
+      <c r="H34" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" s="173" t="s">
+        <v>153</v>
+      </c>
+      <c r="J34" s="174">
         <v>1</v>
       </c>
-      <c r="K34" s="183"/>
-      <c r="L34" s="188"/>
+      <c r="K34" s="170"/>
+      <c r="L34" s="175"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="104">
@@ -8796,10 +8812,10 @@
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="105" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E35" s="105" t="s">
         <v>1</v>
@@ -8814,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="106" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J35" s="113">
         <v>1</v>
@@ -8828,10 +8844,10 @@
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D36" s="105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="105" t="s">
         <v>1</v>
@@ -8849,7 +8865,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K36" s="105"/>
       <c r="L36" s="107"/>
@@ -8860,10 +8876,10 @@
       </c>
       <c r="B37" s="105"/>
       <c r="C37" s="105" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E37" s="105" t="s">
         <v>1</v>
@@ -8872,13 +8888,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H37" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="106" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="113">
         <v>1</v>
@@ -8892,10 +8908,10 @@
       </c>
       <c r="B38" s="105"/>
       <c r="C38" s="105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D38" s="105" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E38" s="105" t="s">
         <v>1</v>
@@ -8910,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J38" s="113">
         <v>1</v>
@@ -8924,26 +8940,26 @@
       </c>
       <c r="B39" s="125"/>
       <c r="C39" s="125" t="s">
+        <v>383</v>
+      </c>
+      <c r="D39" s="125" t="s">
         <v>384</v>
       </c>
-      <c r="D39" s="125" t="s">
-        <v>385</v>
-      </c>
       <c r="E39" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G39" s="126" t="s">
         <v>0</v>
       </c>
       <c r="H39" s="127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I39" s="128"/>
       <c r="J39" s="129" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K39" s="125"/>
       <c r="L39" s="130"/>
@@ -8954,22 +8970,22 @@
       </c>
       <c r="B40" s="125"/>
       <c r="C40" s="125" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D40" s="125" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E40" s="125" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G40" s="126" t="s">
         <v>0</v>
       </c>
       <c r="H40" s="127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I40" s="128"/>
       <c r="J40" s="129"/>
@@ -8982,10 +8998,10 @@
       </c>
       <c r="B41" s="125"/>
       <c r="C41" s="125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D41" s="125" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E41" s="125" t="s">
         <v>1</v>
@@ -8997,256 +9013,256 @@
         <v>0</v>
       </c>
       <c r="H41" s="127" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I41" s="129" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J41" s="129" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K41" s="125"/>
       <c r="L41" s="130"/>
     </row>
     <row r="42" spans="1:12" ht="78" x14ac:dyDescent="0.15">
-      <c r="A42" s="182"/>
-      <c r="B42" s="183"/>
-      <c r="C42" s="183" t="s">
+      <c r="A42" s="169"/>
+      <c r="B42" s="170"/>
+      <c r="C42" s="170" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="170" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F42" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H42" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" s="174" t="s">
+        <v>326</v>
+      </c>
+      <c r="J42" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="K42" s="170"/>
+      <c r="L42" s="175"/>
+    </row>
+    <row r="43" spans="1:12" ht="91" x14ac:dyDescent="0.15">
+      <c r="A43" s="169"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="170" t="s">
         <v>321</v>
       </c>
-      <c r="D42" s="183" t="s">
+      <c r="D43" s="170" t="s">
         <v>314</v>
       </c>
-      <c r="E42" s="183" t="s">
+      <c r="E43" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F42" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G42" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H42" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I42" s="187" t="s">
+      <c r="F43" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" s="174" t="s">
         <v>327</v>
       </c>
-      <c r="J42" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K42" s="183"/>
-      <c r="L42" s="188"/>
-    </row>
-    <row r="43" spans="1:12" ht="91" x14ac:dyDescent="0.15">
-      <c r="A43" s="182"/>
-      <c r="B43" s="183"/>
-      <c r="C43" s="183" t="s">
+      <c r="J43" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="K43" s="170"/>
+      <c r="L43" s="175"/>
+    </row>
+    <row r="44" spans="1:12" ht="117" x14ac:dyDescent="0.15">
+      <c r="A44" s="169"/>
+      <c r="B44" s="170"/>
+      <c r="C44" s="170" t="s">
         <v>322</v>
       </c>
-      <c r="D43" s="183" t="s">
+      <c r="D44" s="170" t="s">
         <v>315</v>
       </c>
-      <c r="E43" s="183" t="s">
+      <c r="E44" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F43" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G43" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H43" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I43" s="187" t="s">
+      <c r="F44" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="174" t="s">
         <v>328</v>
       </c>
-      <c r="J43" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K43" s="183"/>
-      <c r="L43" s="188"/>
-    </row>
-    <row r="44" spans="1:12" ht="117" x14ac:dyDescent="0.15">
-      <c r="A44" s="182"/>
-      <c r="B44" s="183"/>
-      <c r="C44" s="183" t="s">
+      <c r="J44" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="K44" s="170"/>
+      <c r="L44" s="175"/>
+    </row>
+    <row r="45" spans="1:12" ht="91" x14ac:dyDescent="0.15">
+      <c r="A45" s="169"/>
+      <c r="B45" s="170"/>
+      <c r="C45" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="D44" s="183" t="s">
+      <c r="D45" s="170" t="s">
         <v>316</v>
       </c>
-      <c r="E44" s="183" t="s">
+      <c r="E45" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G44" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H44" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I44" s="187" t="s">
+      <c r="F45" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="174" t="s">
         <v>329</v>
       </c>
-      <c r="J44" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K44" s="183"/>
-      <c r="L44" s="188"/>
-    </row>
-    <row r="45" spans="1:12" ht="91" x14ac:dyDescent="0.15">
-      <c r="A45" s="182"/>
-      <c r="B45" s="183"/>
-      <c r="C45" s="183" t="s">
+      <c r="J45" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="K45" s="170"/>
+      <c r="L45" s="175"/>
+    </row>
+    <row r="46" spans="1:12" ht="117" x14ac:dyDescent="0.15">
+      <c r="A46" s="169"/>
+      <c r="B46" s="170"/>
+      <c r="C46" s="170" t="s">
         <v>324</v>
       </c>
-      <c r="D45" s="183" t="s">
+      <c r="D46" s="170" t="s">
         <v>317</v>
       </c>
-      <c r="E45" s="183" t="s">
+      <c r="E46" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F45" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G45" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H45" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I45" s="187" t="s">
+      <c r="F46" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="174" t="s">
         <v>330</v>
       </c>
-      <c r="J45" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K45" s="183"/>
-      <c r="L45" s="188"/>
-    </row>
-    <row r="46" spans="1:12" ht="117" x14ac:dyDescent="0.15">
-      <c r="A46" s="182"/>
-      <c r="B46" s="183"/>
-      <c r="C46" s="183" t="s">
+      <c r="J46" s="174" t="s">
+        <v>319</v>
+      </c>
+      <c r="K46" s="170"/>
+      <c r="L46" s="175"/>
+    </row>
+    <row r="47" spans="1:12" ht="117" x14ac:dyDescent="0.15">
+      <c r="A47" s="169"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="170" t="s">
         <v>325</v>
       </c>
-      <c r="D46" s="183" t="s">
+      <c r="D47" s="170" t="s">
         <v>318</v>
       </c>
-      <c r="E46" s="183" t="s">
+      <c r="E47" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F46" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G46" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H46" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I46" s="187" t="s">
+      <c r="F47" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="G47" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H47" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" s="174" t="s">
         <v>331</v>
       </c>
-      <c r="J46" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K46" s="183"/>
-      <c r="L46" s="188"/>
-    </row>
-    <row r="47" spans="1:12" ht="117" x14ac:dyDescent="0.15">
-      <c r="A47" s="182"/>
-      <c r="B47" s="183"/>
-      <c r="C47" s="183" t="s">
-        <v>326</v>
-      </c>
-      <c r="D47" s="183" t="s">
+      <c r="J47" s="174" t="s">
         <v>319</v>
       </c>
-      <c r="E47" s="183" t="s">
+      <c r="K47" s="170"/>
+      <c r="L47" s="175"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="169"/>
+      <c r="B48" s="170"/>
+      <c r="C48" s="170" t="s">
+        <v>343</v>
+      </c>
+      <c r="D48" s="170" t="s">
+        <v>345</v>
+      </c>
+      <c r="E48" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F47" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="G47" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H47" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I47" s="187" t="s">
-        <v>332</v>
-      </c>
-      <c r="J47" s="187" t="s">
-        <v>320</v>
-      </c>
-      <c r="K47" s="183"/>
-      <c r="L47" s="188"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A48" s="182"/>
-      <c r="B48" s="183"/>
-      <c r="C48" s="183" t="s">
+      <c r="F48" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G48" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H48" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" s="173" t="s">
+        <v>347</v>
+      </c>
+      <c r="J48" s="174">
+        <v>0</v>
+      </c>
+      <c r="K48" s="170"/>
+      <c r="L48" s="175"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="169"/>
+      <c r="B49" s="170"/>
+      <c r="C49" s="170" t="s">
         <v>344</v>
       </c>
-      <c r="D48" s="183" t="s">
+      <c r="D49" s="170" t="s">
         <v>346</v>
       </c>
-      <c r="E48" s="183" t="s">
+      <c r="E49" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="F48" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="G48" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H48" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I48" s="186" t="s">
-        <v>348</v>
-      </c>
-      <c r="J48" s="187">
-        <v>0</v>
-      </c>
-      <c r="K48" s="183"/>
-      <c r="L48" s="188"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A49" s="182"/>
-      <c r="B49" s="183"/>
-      <c r="C49" s="183" t="s">
-        <v>345</v>
-      </c>
-      <c r="D49" s="183" t="s">
+      <c r="F49" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G49" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="H49" s="172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="173" t="s">
         <v>347</v>
       </c>
-      <c r="E49" s="183" t="s">
-        <v>1</v>
-      </c>
-      <c r="F49" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="G49" s="184" t="s">
-        <v>0</v>
-      </c>
-      <c r="H49" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="I49" s="186" t="s">
-        <v>348</v>
-      </c>
-      <c r="J49" s="187">
-        <v>0</v>
-      </c>
-      <c r="K49" s="183"/>
-      <c r="L49" s="188"/>
+      <c r="J49" s="174">
+        <v>0</v>
+      </c>
+      <c r="K49" s="170"/>
+      <c r="L49" s="175"/>
     </row>
     <row r="50" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A50" s="108">
@@ -9254,10 +9270,10 @@
       </c>
       <c r="B50" s="109"/>
       <c r="C50" s="109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50" s="109" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E50" s="109" t="s">
         <v>1</v>
@@ -9275,7 +9291,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="121" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K50" s="109"/>
       <c r="L50" s="111"/>
@@ -9333,27 +9349,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -9362,20 +9378,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -9397,24 +9413,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
-        <v>390</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="180" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
+        <v>387</v>
+      </c>
+      <c r="E6" s="182" t="s">
         <v>388</v>
       </c>
-      <c r="E6" s="143" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -9460,7 +9476,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -9475,7 +9491,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -9492,7 +9508,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -9510,10 +9526,10 @@
         <v>0</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -9526,7 +9542,7 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>72</v>
@@ -9547,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>48</v>
@@ -9581,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -9615,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="73" t="s">
         <v>0</v>
@@ -9630,7 +9646,7 @@
     </row>
     <row r="15" spans="1:12" ht="14" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I15" s="98"/>
     </row>
@@ -9640,10 +9656,10 @@
       </c>
       <c r="B16" s="101"/>
       <c r="C16" s="101" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>1</v>
@@ -9652,16 +9668,16 @@
         <v>0</v>
       </c>
       <c r="G16" s="114" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H16" s="114" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I16" s="102" t="s">
         <v>0</v>
       </c>
       <c r="J16" s="120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K16" s="101"/>
       <c r="L16" s="103"/>
@@ -9672,10 +9688,10 @@
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="105" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D17" s="105" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" s="105" t="s">
         <v>1</v>
@@ -9693,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="113" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K17" s="105"/>
       <c r="L17" s="107"/>
@@ -9704,10 +9720,10 @@
       </c>
       <c r="B18" s="105"/>
       <c r="C18" s="105" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D18" s="105" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E18" s="105" t="s">
         <v>1</v>
@@ -9725,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="113" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K18" s="105"/>
       <c r="L18" s="107"/>
@@ -9736,10 +9752,10 @@
       </c>
       <c r="B19" s="105"/>
       <c r="C19" s="105" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E19" s="105" t="s">
         <v>1</v>
@@ -9754,10 +9770,10 @@
         <v>0</v>
       </c>
       <c r="I19" s="106" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J19" s="113" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K19" s="105"/>
       <c r="L19" s="107"/>
@@ -9768,10 +9784,10 @@
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="105" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E20" s="105" t="s">
         <v>1</v>
@@ -9789,7 +9805,7 @@
         <v>48</v>
       </c>
       <c r="J20" s="113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K20" s="105"/>
       <c r="L20" s="107"/>
@@ -9800,10 +9816,10 @@
       </c>
       <c r="B21" s="105"/>
       <c r="C21" s="105" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E21" s="105" t="s">
         <v>1</v>
@@ -9818,10 +9834,10 @@
         <v>0</v>
       </c>
       <c r="I21" s="106" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J21" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K21" s="105"/>
       <c r="L21" s="107"/>
@@ -9832,10 +9848,10 @@
       </c>
       <c r="B22" s="105"/>
       <c r="C22" s="105" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D22" s="105" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E22" s="105" t="s">
         <v>1</v>
@@ -9844,16 +9860,16 @@
         <v>0</v>
       </c>
       <c r="G22" s="115" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I22" s="106" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="J22" s="113" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K22" s="105"/>
       <c r="L22" s="107"/>
@@ -9864,10 +9880,10 @@
       </c>
       <c r="B23" s="105"/>
       <c r="C23" s="105" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D23" s="105" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E23" s="105" t="s">
         <v>1</v>
@@ -9876,16 +9892,16 @@
         <v>0</v>
       </c>
       <c r="G23" s="115" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H23" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I23" s="106" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J23" s="113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K23" s="105"/>
       <c r="L23" s="107"/>
@@ -9896,10 +9912,10 @@
       </c>
       <c r="B24" s="105"/>
       <c r="C24" s="105" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E24" s="105" t="s">
         <v>1</v>
@@ -9914,10 +9930,10 @@
         <v>0</v>
       </c>
       <c r="I24" s="106" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J24" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K24" s="105"/>
       <c r="L24" s="107"/>
@@ -9928,10 +9944,10 @@
       </c>
       <c r="B25" s="105"/>
       <c r="C25" s="105" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E25" s="105" t="s">
         <v>1</v>
@@ -9940,16 +9956,16 @@
         <v>0</v>
       </c>
       <c r="G25" s="115" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H25" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I25" s="106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J25" s="113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K25" s="105"/>
       <c r="L25" s="107"/>
@@ -9960,10 +9976,10 @@
       </c>
       <c r="B26" s="105"/>
       <c r="C26" s="105" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E26" s="105" t="s">
         <v>1</v>
@@ -9978,10 +9994,10 @@
         <v>0</v>
       </c>
       <c r="I26" s="106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K26" s="105"/>
       <c r="L26" s="107"/>
@@ -9992,10 +10008,10 @@
       </c>
       <c r="B27" s="105"/>
       <c r="C27" s="105" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E27" s="105" t="s">
         <v>1</v>
@@ -10013,7 +10029,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K27" s="105"/>
       <c r="L27" s="107"/>
@@ -10024,10 +10040,10 @@
       </c>
       <c r="B28" s="105"/>
       <c r="C28" s="105" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E28" s="105" t="s">
         <v>1</v>
@@ -10045,7 +10061,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="113" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K28" s="105"/>
       <c r="L28" s="107"/>
@@ -10056,10 +10072,10 @@
       </c>
       <c r="B29" s="105"/>
       <c r="C29" s="105" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E29" s="105" t="s">
         <v>1</v>
@@ -10074,10 +10090,10 @@
         <v>0</v>
       </c>
       <c r="I29" s="106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J29" s="113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K29" s="105"/>
       <c r="L29" s="107"/>
@@ -10088,10 +10104,10 @@
       </c>
       <c r="B30" s="105"/>
       <c r="C30" s="105" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E30" s="105" t="s">
         <v>1</v>
@@ -10109,7 +10125,7 @@
         <v>48</v>
       </c>
       <c r="J30" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K30" s="105"/>
       <c r="L30" s="107"/>
@@ -10120,10 +10136,10 @@
       </c>
       <c r="B31" s="105"/>
       <c r="C31" s="105" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E31" s="105" t="s">
         <v>1</v>
@@ -10141,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="113" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K31" s="105"/>
       <c r="L31" s="107"/>
@@ -10152,10 +10168,10 @@
       </c>
       <c r="B32" s="105"/>
       <c r="C32" s="105" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D32" s="105" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E32" s="105" t="s">
         <v>1</v>
@@ -10173,7 +10189,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="113" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K32" s="105"/>
       <c r="L32" s="107"/>
@@ -10184,10 +10200,10 @@
       </c>
       <c r="B33" s="105"/>
       <c r="C33" s="105" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D33" s="105" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E33" s="105" t="s">
         <v>1</v>
@@ -10205,7 +10221,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K33" s="105"/>
       <c r="L33" s="107"/>
@@ -10216,10 +10232,10 @@
       </c>
       <c r="B34" s="105"/>
       <c r="C34" s="105" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D34" s="105" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E34" s="105" t="s">
         <v>1</v>
@@ -10234,10 +10250,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J34" s="113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K34" s="105"/>
       <c r="L34" s="107"/>
@@ -10248,10 +10264,10 @@
       </c>
       <c r="B35" s="105"/>
       <c r="C35" s="105" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E35" s="105" t="s">
         <v>1</v>
@@ -10266,10 +10282,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="106" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="J35" s="113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K35" s="105"/>
       <c r="L35" s="107"/>
@@ -10280,10 +10296,10 @@
       </c>
       <c r="B36" s="105"/>
       <c r="C36" s="105" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D36" s="105" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E36" s="105" t="s">
         <v>1</v>
@@ -10301,7 +10317,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K36" s="105"/>
       <c r="L36" s="107"/>
@@ -10312,10 +10328,10 @@
       </c>
       <c r="B37" s="105"/>
       <c r="C37" s="105" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E37" s="105" t="s">
         <v>1</v>
@@ -10324,16 +10340,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H37" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I37" s="106" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J37" s="113" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K37" s="105"/>
       <c r="L37" s="107"/>
@@ -10372,6 +10388,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10405,27 +10426,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -10434,20 +10455,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -10469,24 +10490,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="146" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="147"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="147"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
+        <v>91</v>
+      </c>
+      <c r="E6" s="188" t="s">
+        <v>273</v>
+      </c>
+      <c r="F6" s="189"/>
+      <c r="G6" s="189"/>
+      <c r="H6" s="189"/>
+      <c r="I6" s="189"/>
+      <c r="J6" s="189"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="190"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -10547,7 +10568,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -10572,7 +10593,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F9" s="18">
         <v>50</v>
@@ -10587,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -10600,13 +10621,13 @@
       </c>
       <c r="B10" s="47"/>
       <c r="C10" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F10" s="6">
         <v>50</v>
@@ -10615,13 +10636,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J10" s="49" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K10" s="48" t="s">
         <v>0</v>
@@ -10634,13 +10655,13 @@
       </c>
       <c r="B11" s="47"/>
       <c r="C11" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D11" s="37" t="s">
         <v>75</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="38">
         <v>20</v>
@@ -10652,13 +10673,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K11" s="48" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L11" s="62"/>
     </row>
@@ -10668,13 +10689,13 @@
       </c>
       <c r="B12" s="47"/>
       <c r="C12" s="122" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" s="38">
         <v>1</v>
@@ -10686,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J12" s="49">
         <v>1</v>
@@ -10702,28 +10723,28 @@
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E13" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="49" t="s">
         <v>267</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="49" t="s">
-        <v>268</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>0</v>
@@ -10757,7 +10778,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K14" s="48" t="s">
         <v>0</v>
@@ -10791,7 +10812,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K15" s="79" t="s">
         <v>0</v>
@@ -10889,6 +10910,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -10922,27 +10948,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -10951,20 +10977,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -10986,24 +11012,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>279</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+        <v>92</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -11028,7 +11054,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="123" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I7" s="99" t="s">
         <v>25</v>
@@ -11064,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -11073,7 +11099,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -11098,13 +11124,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -11138,7 +11164,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -11172,7 +11198,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" s="48" t="s">
         <v>0</v>
@@ -11206,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K12" s="48" t="s">
         <v>0</v>
@@ -11240,7 +11266,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>0</v>
@@ -11271,7 +11297,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J14" s="21">
         <v>1</v>
@@ -11287,13 +11313,13 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="37" t="s">
+        <v>337</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>338</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>358</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>339</v>
       </c>
       <c r="F15" s="38">
         <v>255</v>
@@ -11305,10 +11331,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K15" s="48" t="s">
         <v>0</v>
@@ -11342,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="48" t="s">
         <v>0</v>
@@ -11376,7 +11402,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="79" t="s">
         <v>0</v>
@@ -11474,6 +11500,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11507,27 +11538,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -11536,20 +11567,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -11571,24 +11602,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
+        <v>279</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="182" t="s">
         <v>280</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>281</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -11634,7 +11665,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -11649,7 +11680,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -11668,7 +11699,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -11683,13 +11714,13 @@
         <v>0</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -11702,7 +11733,7 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>83</v>
@@ -11723,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -11757,7 +11788,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -11788,10 +11819,10 @@
         <v>0</v>
       </c>
       <c r="I12" s="68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J12" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="73" t="s">
         <v>0</v>
@@ -11904,6 +11935,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -11914,7 +11950,7 @@
   </sheetPr>
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A8" zoomScale="150" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A6" zoomScale="150" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -11940,27 +11976,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -11969,20 +12005,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -12004,16 +12040,16 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E6" s="133" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F6" s="134"/>
       <c r="G6" s="134"/>
@@ -12082,7 +12118,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -12091,7 +12127,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -12101,16 +12137,16 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G9" s="18" t="s">
         <v>0</v>
@@ -12122,7 +12158,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -12135,13 +12171,13 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" s="18">
         <v>255</v>
@@ -12156,7 +12192,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -12169,10 +12205,10 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>31</v>
@@ -12190,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -12203,13 +12239,13 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F12" s="18">
         <v>8</v>
@@ -12221,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="23" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J12" s="21">
         <v>1</v>
@@ -12237,10 +12273,10 @@
       </c>
       <c r="B13" s="33"/>
       <c r="C13" s="17" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E13" s="17" t="s">
         <v>31</v>
@@ -12258,7 +12294,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>0</v>
@@ -12271,13 +12307,13 @@
       </c>
       <c r="B14" s="33"/>
       <c r="C14" s="17" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F14" s="18">
         <v>8</v>
@@ -12289,7 +12325,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="23" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J14" s="21">
         <v>1</v>
@@ -12305,13 +12341,13 @@
       </c>
       <c r="B15" s="33"/>
       <c r="C15" s="17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F15" s="18">
         <v>8</v>
@@ -12323,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J15" s="21">
         <v>1</v>
@@ -12339,13 +12375,13 @@
       </c>
       <c r="B16" s="33"/>
       <c r="C16" s="17" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F16" s="18">
         <v>8</v>
@@ -12357,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="23" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="J16" s="21">
         <v>1</v>
@@ -12373,13 +12409,13 @@
       </c>
       <c r="B17" s="33"/>
       <c r="C17" s="17" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F17" s="18">
         <v>8</v>
@@ -12391,7 +12427,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J17" s="21">
         <v>1</v>
@@ -12407,13 +12443,13 @@
       </c>
       <c r="B18" s="33"/>
       <c r="C18" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="F18" s="18">
         <v>8</v>
@@ -12441,13 +12477,13 @@
       </c>
       <c r="B19" s="33"/>
       <c r="C19" s="17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E19" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F19" s="18">
         <v>8</v>
@@ -12475,13 +12511,13 @@
       </c>
       <c r="B20" s="33"/>
       <c r="C20" s="17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F20" s="18">
         <v>8</v>
@@ -12509,10 +12545,10 @@
       </c>
       <c r="B21" s="33"/>
       <c r="C21" s="17" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E21" s="17" t="s">
         <v>31</v>
@@ -12530,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="21" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K21" s="22" t="s">
         <v>0</v>
@@ -12543,16 +12579,16 @@
       </c>
       <c r="B22" s="33"/>
       <c r="C22" s="17" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G22" s="18" t="s">
         <v>0</v>
@@ -12564,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="21" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="K22" s="22" t="s">
         <v>0</v>
@@ -12577,10 +12613,10 @@
       </c>
       <c r="B23" s="33"/>
       <c r="C23" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E23" s="17" t="s">
         <v>31</v>
@@ -12609,13 +12645,13 @@
       </c>
       <c r="B24" s="33"/>
       <c r="C24" s="17" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="F24" s="18">
         <v>8</v>
@@ -12627,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="23" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="J24" s="21">
         <v>1</v>
@@ -12643,13 +12679,13 @@
       </c>
       <c r="B25" s="33"/>
       <c r="C25" s="17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E25" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F25" s="18">
         <v>50</v>
@@ -12664,7 +12700,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K25" s="22" t="s">
         <v>0</v>
@@ -12677,13 +12713,13 @@
       </c>
       <c r="B26" s="33"/>
       <c r="C26" s="17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E26" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F26" s="18">
         <v>1</v>
@@ -12711,16 +12747,16 @@
       </c>
       <c r="B27" s="33"/>
       <c r="C27" s="17" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E27" s="17" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>0</v>
@@ -12731,8 +12767,8 @@
       <c r="I27" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J27" s="189" t="s">
-        <v>580</v>
+      <c r="J27" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K27" s="22" t="s">
         <v>0</v>
@@ -12745,16 +12781,16 @@
       </c>
       <c r="B28" s="33"/>
       <c r="C28" s="17" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>0</v>
@@ -12765,8 +12801,8 @@
       <c r="I28" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J28" s="189" t="s">
-        <v>580</v>
+      <c r="J28" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K28" s="22" t="s">
         <v>0</v>
@@ -12779,13 +12815,13 @@
       </c>
       <c r="B29" s="33"/>
       <c r="C29" s="17" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F29" s="18">
         <v>1</v>
@@ -12813,16 +12849,16 @@
       </c>
       <c r="B30" s="33"/>
       <c r="C30" s="17" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>0</v>
@@ -12833,8 +12869,8 @@
       <c r="I30" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="189" t="s">
-        <v>580</v>
+      <c r="J30" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K30" s="22" t="s">
         <v>0</v>
@@ -12847,16 +12883,16 @@
       </c>
       <c r="B31" s="33"/>
       <c r="C31" s="17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G31" s="18" t="s">
         <v>0</v>
@@ -12867,8 +12903,8 @@
       <c r="I31" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="189" t="s">
-        <v>580</v>
+      <c r="J31" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K31" s="22" t="s">
         <v>0</v>
@@ -12881,13 +12917,13 @@
       </c>
       <c r="B32" s="33"/>
       <c r="C32" s="17" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F32" s="18">
         <v>1</v>
@@ -12915,16 +12951,16 @@
       </c>
       <c r="B33" s="33"/>
       <c r="C33" s="17" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G33" s="18" t="s">
         <v>0</v>
@@ -12935,8 +12971,8 @@
       <c r="I33" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J33" s="189" t="s">
-        <v>580</v>
+      <c r="J33" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K33" s="22" t="s">
         <v>0</v>
@@ -12949,13 +12985,13 @@
       </c>
       <c r="B34" s="33"/>
       <c r="C34" s="17" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="F34" s="18">
         <v>1</v>
@@ -12983,10 +13019,10 @@
       </c>
       <c r="B35" s="34"/>
       <c r="C35" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>2</v>
@@ -12998,13 +13034,13 @@
         <v>0</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I35" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J35" s="189" t="s">
-        <v>580</v>
+      <c r="J35" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>0</v>
@@ -13017,10 +13053,10 @@
       </c>
       <c r="B36" s="64"/>
       <c r="C36" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E36" s="65" t="s">
         <v>2</v>
@@ -13037,8 +13073,8 @@
       <c r="I36" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J36" s="190" t="s">
-        <v>581</v>
+      <c r="J36" s="177" t="s">
+        <v>580</v>
       </c>
       <c r="K36" s="83" t="s">
         <v>0</v>
@@ -13075,6 +13111,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13111,27 +13152,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -13140,20 +13181,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -13175,16 +13216,16 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="133" t="s">
         <v>588</v>
-      </c>
-      <c r="E6" s="133" t="s">
-        <v>589</v>
       </c>
       <c r="F6" s="134"/>
       <c r="G6" s="134"/>
@@ -13253,7 +13294,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -13262,7 +13303,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -13272,13 +13313,13 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F9" s="18">
         <v>255</v>
@@ -13293,7 +13334,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -13306,13 +13347,13 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" s="18">
         <v>255</v>
@@ -13327,7 +13368,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -13340,10 +13381,10 @@
       </c>
       <c r="B11" s="34"/>
       <c r="C11" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>2</v>
@@ -13355,13 +13396,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="189" t="s">
-        <v>580</v>
+      <c r="J11" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>0</v>
@@ -13374,10 +13415,10 @@
       </c>
       <c r="B12" s="64"/>
       <c r="C12" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E12" s="65" t="s">
         <v>2</v>
@@ -13394,8 +13435,8 @@
       <c r="I12" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="190" t="s">
-        <v>581</v>
+      <c r="J12" s="177" t="s">
+        <v>580</v>
       </c>
       <c r="K12" s="83" t="s">
         <v>0</v>
@@ -13432,6 +13473,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13468,27 +13514,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -13497,20 +13543,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -13532,16 +13578,16 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" s="133" t="s">
         <v>595</v>
-      </c>
-      <c r="E6" s="133" t="s">
-        <v>596</v>
       </c>
       <c r="F6" s="134"/>
       <c r="G6" s="134"/>
@@ -13610,7 +13656,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -13619,7 +13665,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -13629,28 +13675,28 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="21" t="s">
         <v>598</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>597</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>599</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -13663,10 +13709,10 @@
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>2</v>
@@ -13678,13 +13724,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I10" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="189" t="s">
-        <v>580</v>
+      <c r="J10" s="176" t="s">
+        <v>579</v>
       </c>
       <c r="K10" s="11" t="s">
         <v>0</v>
@@ -13697,10 +13743,10 @@
       </c>
       <c r="B11" s="64"/>
       <c r="C11" s="65" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D11" s="65" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E11" s="65" t="s">
         <v>2</v>
@@ -13717,8 +13763,8 @@
       <c r="I11" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="190" t="s">
-        <v>581</v>
+      <c r="J11" s="177" t="s">
+        <v>580</v>
       </c>
       <c r="K11" s="83" t="s">
         <v>0</v>
@@ -13755,6 +13801,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -13788,27 +13839,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -13817,20 +13868,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -13852,16 +13903,16 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" s="87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="88"/>
       <c r="G6" s="88"/>
@@ -13930,7 +13981,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -13939,7 +13990,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="60"/>
     </row>
@@ -13949,7 +14000,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -13970,7 +14021,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -13983,13 +14034,13 @@
       </c>
       <c r="B10" s="34"/>
       <c r="C10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="F10" s="6">
         <v>8</v>
@@ -13998,10 +14049,10 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I10" s="96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -14032,13 +14083,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I11" s="96" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>0</v>
@@ -14072,7 +14123,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K12" s="83" t="s">
         <v>0</v>
@@ -14109,6 +14160,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14142,27 +14198,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -14171,20 +14227,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -14206,24 +14262,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="180" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="E6" s="182" t="s">
         <v>290</v>
       </c>
-      <c r="E6" s="143" t="s">
-        <v>291</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -14269,7 +14325,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -14284,7 +14340,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -14303,7 +14359,7 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>29</v>
@@ -14324,7 +14380,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K9" s="22" t="s">
         <v>0</v>
@@ -14337,10 +14393,10 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>31</v>
@@ -14358,7 +14414,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>0</v>
@@ -14371,10 +14427,10 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>31</v>
@@ -14392,7 +14448,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -14405,14 +14461,14 @@
       </c>
       <c r="B12" s="33"/>
       <c r="C12" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>301</v>
-      </c>
       <c r="F12" s="18" t="s">
         <v>0</v>
       </c>
@@ -14426,7 +14482,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K12" s="22" t="s">
         <v>0</v>
@@ -14460,7 +14516,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>0</v>
@@ -14494,7 +14550,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="73" t="s">
         <v>0</v>
@@ -14607,6 +14663,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14640,27 +14701,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -14669,20 +14730,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -14704,24 +14765,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
+      <c r="A6" s="180" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
+      <c r="D6" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="56" t="s">
+      <c r="E6" s="185" t="s">
         <v>127</v>
       </c>
-      <c r="E6" s="140" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -14767,7 +14828,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -14782,7 +14843,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -14801,10 +14862,10 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>33</v>
@@ -14819,13 +14880,13 @@
         <v>0</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J9" s="21">
         <v>1</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L9" s="61"/>
     </row>
@@ -14835,7 +14896,7 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>29</v>
@@ -14856,10 +14917,10 @@
         <v>0</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L10" s="61"/>
     </row>
@@ -14872,7 +14933,7 @@
         <v>55</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>31</v>
@@ -14890,7 +14951,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -14903,13 +14964,13 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F12" s="38">
         <v>8</v>
@@ -14924,7 +14985,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>0</v>
@@ -14958,7 +15019,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>0</v>
@@ -14992,7 +15053,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K14" s="83" t="s">
         <v>0</v>
@@ -15093,6 +15154,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -15129,27 +15195,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -15158,20 +15224,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>288</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>287</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -15193,24 +15259,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
-        <v>176</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="140" t="s">
-        <v>175</v>
-      </c>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="142"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="185" t="s">
+        <v>174</v>
+      </c>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="186"/>
+      <c r="I6" s="186"/>
+      <c r="J6" s="186"/>
+      <c r="K6" s="186"/>
+      <c r="L6" s="187"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -15271,7 +15337,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -15285,139 +15351,139 @@
       <c r="L8" s="60"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="149"/>
-      <c r="B9" s="150"/>
-      <c r="C9" s="151" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="151" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="137"/>
+      <c r="C9" s="138" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="138" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="151" t="s">
+      <c r="E9" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="152">
+      <c r="F9" s="139">
         <v>8</v>
       </c>
-      <c r="G9" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="153">
+      <c r="G9" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="140">
         <v>1</v>
       </c>
-      <c r="K9" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="L9" s="155" t="s">
-        <v>490</v>
+      <c r="K9" s="141" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150"/>
-      <c r="C10" s="151" t="s">
+      <c r="A10" s="136"/>
+      <c r="B10" s="137"/>
+      <c r="C10" s="138" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="151" t="s">
+      <c r="E10" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="152">
+      <c r="F10" s="139">
         <v>50</v>
       </c>
-      <c r="G10" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="K10" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="155" t="s">
-        <v>490</v>
+      <c r="G10" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="140" t="s">
+        <v>167</v>
+      </c>
+      <c r="K10" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="L10" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150"/>
-      <c r="C11" s="151" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="137"/>
+      <c r="C11" s="138" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="151" t="s">
+      <c r="D11" s="138" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="151" t="s">
+      <c r="E11" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="152">
+      <c r="F11" s="139">
         <v>255</v>
       </c>
-      <c r="G11" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="153" t="s">
-        <v>108</v>
-      </c>
-      <c r="K11" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="L11" s="155" t="s">
-        <v>490</v>
+      <c r="G11" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="140" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" s="141" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A12" s="149"/>
-      <c r="B12" s="150"/>
-      <c r="C12" s="151" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="151" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="138" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="138" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="151" t="s">
+      <c r="E12" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="152">
+      <c r="F12" s="139">
         <v>255</v>
       </c>
-      <c r="G12" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="153" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="154" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="155" t="s">
-        <v>490</v>
+      <c r="G12" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="140" t="s">
+        <v>165</v>
+      </c>
+      <c r="K12" s="141" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="26" x14ac:dyDescent="0.15">
@@ -15426,7 +15492,7 @@
       </c>
       <c r="B13" s="47"/>
       <c r="C13" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>59</v>
@@ -15447,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K13" s="48" t="s">
         <v>0</v>
@@ -15455,105 +15521,105 @@
       <c r="L13" s="62"/>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="151" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="137"/>
+      <c r="C14" s="138" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="138" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="151" t="s">
+      <c r="E14" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="152">
+      <c r="F14" s="139">
         <v>8</v>
       </c>
-      <c r="G14" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="153" t="s">
+      <c r="G14" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="140" t="s">
+        <v>151</v>
+      </c>
+      <c r="J14" s="140">
+        <v>3</v>
+      </c>
+      <c r="K14" s="141" t="s">
+        <v>170</v>
+      </c>
+      <c r="L14" s="142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="136"/>
+      <c r="B15" s="137"/>
+      <c r="C15" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="138" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="138" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="139">
+        <v>1</v>
+      </c>
+      <c r="G15" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="140" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="140">
+        <v>0</v>
+      </c>
+      <c r="K15" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="J14" s="153">
-        <v>3</v>
-      </c>
-      <c r="K14" s="154" t="s">
+      <c r="L15" s="142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="136"/>
+      <c r="B16" s="137"/>
+      <c r="C16" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="144" t="s">
         <v>171</v>
       </c>
-      <c r="L14" s="155" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="149"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="151" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="152">
-        <v>1</v>
-      </c>
-      <c r="G15" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H15" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I15" s="153" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="153">
-        <v>0</v>
-      </c>
-      <c r="K15" s="154" t="s">
-        <v>153</v>
-      </c>
-      <c r="L15" s="155" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="149"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="151" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="151" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="152" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="153" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="156" t="s">
-        <v>109</v>
-      </c>
-      <c r="K16" s="157" t="s">
-        <v>172</v>
-      </c>
-      <c r="L16" s="155" t="s">
-        <v>490</v>
+      <c r="L16" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="26" x14ac:dyDescent="0.15">
@@ -15562,7 +15628,7 @@
       </c>
       <c r="B17" s="47"/>
       <c r="C17" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>61</v>
@@ -15583,7 +15649,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>0</v>
@@ -15591,139 +15657,139 @@
       <c r="L17" s="62"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="149"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="146" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" s="146" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="147">
+        <v>8</v>
+      </c>
+      <c r="G18" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="148" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" s="150" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="136"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="D18" s="159" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="159" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="160">
-        <v>8</v>
-      </c>
-      <c r="G18" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="161" t="s">
-        <v>121</v>
-      </c>
-      <c r="J18" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="163" t="s">
-        <v>153</v>
-      </c>
-      <c r="L18" s="155" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="149"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="159" t="s">
+      <c r="D19" s="146" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="149" t="s">
+        <v>169</v>
+      </c>
+      <c r="K19" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="136"/>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="D19" s="159" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="159" t="s">
+      <c r="D20" s="146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="146" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="G19" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H19" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I19" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="J19" s="162" t="s">
-        <v>170</v>
-      </c>
-      <c r="K19" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L19" s="155" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="149"/>
-      <c r="B20" s="158"/>
-      <c r="C20" s="159" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" s="159" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="159" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="G20" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H20" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I20" s="161" t="s">
-        <v>0</v>
-      </c>
-      <c r="J20" s="162" t="s">
-        <v>113</v>
-      </c>
-      <c r="K20" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L20" s="155" t="s">
-        <v>490</v>
+      <c r="F20" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="G20" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="148" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="149" t="s">
+        <v>112</v>
+      </c>
+      <c r="K20" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="149"/>
-      <c r="B21" s="158"/>
-      <c r="C21" s="159" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="D21" s="159" t="s">
+      <c r="E21" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="E21" s="159" t="s">
+      <c r="F21" s="147">
+        <v>1</v>
+      </c>
+      <c r="G21" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="148" t="s">
         <v>164</v>
       </c>
-      <c r="F21" s="160">
-        <v>1</v>
-      </c>
-      <c r="G21" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H21" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I21" s="161" t="s">
-        <v>165</v>
-      </c>
-      <c r="J21" s="162" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L21" s="155" t="s">
-        <v>490</v>
+      <c r="J21" s="149" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="L21" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="26" x14ac:dyDescent="0.15">
@@ -15732,100 +15798,100 @@
       </c>
       <c r="B22" s="90"/>
       <c r="C22" s="37" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="F22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="91" t="s">
         <v>335</v>
       </c>
-      <c r="F22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="91" t="s">
+      <c r="J22" s="42" t="s">
         <v>336</v>
       </c>
-      <c r="J22" s="42" t="s">
-        <v>337</v>
-      </c>
       <c r="K22" s="92" t="s">
         <v>0</v>
       </c>
       <c r="L22" s="93"/>
     </row>
     <row r="23" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A23" s="149"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="159" t="s">
-        <v>343</v>
-      </c>
-      <c r="D23" s="159" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="145"/>
+      <c r="C23" s="146" t="s">
+        <v>342</v>
+      </c>
+      <c r="D23" s="146" t="s">
+        <v>355</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="F23" s="147">
+        <v>2</v>
+      </c>
+      <c r="G23" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="148" t="s">
+        <v>349</v>
+      </c>
+      <c r="J23" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="K23" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="L23" s="142" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="26" x14ac:dyDescent="0.15">
+      <c r="A24" s="136"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="146" t="s">
+        <v>351</v>
+      </c>
+      <c r="D24" s="146" t="s">
         <v>356</v>
       </c>
-      <c r="E23" s="159" t="s">
+      <c r="E24" s="146" t="s">
+        <v>348</v>
+      </c>
+      <c r="F24" s="147">
+        <v>2</v>
+      </c>
+      <c r="G24" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="H24" s="147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="148" t="s">
         <v>349</v>
       </c>
-      <c r="F23" s="160">
-        <v>2</v>
-      </c>
-      <c r="G23" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="161" t="s">
+      <c r="J24" s="149" t="s">
         <v>350</v>
       </c>
-      <c r="J23" s="162" t="s">
-        <v>351</v>
-      </c>
-      <c r="K23" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L23" s="155" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="26" x14ac:dyDescent="0.15">
-      <c r="A24" s="149"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="159" t="s">
-        <v>352</v>
-      </c>
-      <c r="D24" s="159" t="s">
-        <v>357</v>
-      </c>
-      <c r="E24" s="159" t="s">
-        <v>349</v>
-      </c>
-      <c r="F24" s="160">
-        <v>2</v>
-      </c>
-      <c r="G24" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="H24" s="160" t="s">
-        <v>0</v>
-      </c>
-      <c r="I24" s="161" t="s">
-        <v>350</v>
-      </c>
-      <c r="J24" s="162" t="s">
-        <v>351</v>
-      </c>
-      <c r="K24" s="163" t="s">
-        <v>0</v>
-      </c>
-      <c r="L24" s="155" t="s">
-        <v>490</v>
+      <c r="K24" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="L24" s="142" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -15837,7 +15903,7 @@
         <v>20</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>2</v>
@@ -15855,7 +15921,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K25" s="92" t="s">
         <v>0</v>
@@ -15889,7 +15955,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K26" s="79" t="s">
         <v>0</v>
@@ -15972,6 +16038,11 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16005,27 +16076,27 @@
       </c>
       <c r="B1" s="1"/>
       <c r="L1" s="25" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="139"/>
+      <c r="B3" s="178"/>
       <c r="C3" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D3" s="124" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="136" t="s">
+      <c r="E3" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="136"/>
+      <c r="F3" s="179"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="32"/>
@@ -16034,20 +16105,20 @@
       <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="139"/>
+      <c r="B4" s="178"/>
       <c r="C4" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D4" s="124" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="F4" s="136"/>
+      <c r="E4" s="179" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="179"/>
       <c r="G4" s="31"/>
       <c r="H4" s="31"/>
       <c r="I4" s="32"/>
@@ -16069,24 +16140,24 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="137" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" s="138"/>
-      <c r="C6" s="138"/>
+      <c r="A6" s="180" t="s">
+        <v>361</v>
+      </c>
+      <c r="B6" s="181"/>
+      <c r="C6" s="181"/>
       <c r="D6" s="56" t="s">
-        <v>360</v>
-      </c>
-      <c r="E6" s="143" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" s="144"/>
-      <c r="G6" s="144"/>
-      <c r="H6" s="144"/>
-      <c r="I6" s="144"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="144"/>
-      <c r="L6" s="145"/>
+        <v>359</v>
+      </c>
+      <c r="E6" s="182" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="183"/>
+      <c r="G6" s="183"/>
+      <c r="H6" s="183"/>
+      <c r="I6" s="183"/>
+      <c r="J6" s="183"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="184"/>
     </row>
     <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
@@ -16132,7 +16203,7 @@
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>32</v>
@@ -16147,7 +16218,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I8" s="20" t="s">
         <v>0</v>
@@ -16166,13 +16237,13 @@
       </c>
       <c r="B9" s="33"/>
       <c r="C9" s="17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D9" s="17" t="s">
         <v>53</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F9" s="18">
         <v>8</v>
@@ -16200,13 +16271,13 @@
       </c>
       <c r="B10" s="33"/>
       <c r="C10" s="17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F10" s="18">
         <v>8</v>
@@ -16234,13 +16305,13 @@
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="5" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F11" s="6">
         <v>255</v>
@@ -16255,7 +16326,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K11" s="22" t="s">
         <v>0</v>
@@ -16268,13 +16339,13 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="37" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F12" s="38">
         <v>8</v>
@@ -16287,10 +16358,10 @@
       </c>
       <c r="I12" s="40"/>
       <c r="J12" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K12" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L12" s="82"/>
     </row>
@@ -16300,13 +16371,13 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="37" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F13" s="38">
         <v>255</v>
@@ -16319,7 +16390,7 @@
       </c>
       <c r="I13" s="40"/>
       <c r="J13" s="42" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K13" s="41" t="s">
         <v>0</v>
@@ -16332,10 +16403,10 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="37" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E14" s="37" t="s">
         <v>3</v>
@@ -16350,10 +16421,10 @@
         <v>0</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K14" s="41" t="s">
         <v>0</v>
@@ -16366,10 +16437,10 @@
       </c>
       <c r="B15" s="36"/>
       <c r="C15" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E15" s="37" t="s">
         <v>3</v>
@@ -16384,10 +16455,10 @@
         <v>0</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>0</v>
@@ -16421,7 +16492,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="94" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K16" s="11" t="s">
         <v>0</v>
@@ -16455,7 +16526,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="95" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K17" s="83" t="s">
         <v>0</v>
@@ -16562,5 +16633,10 @@
     <oddFooter>&amp;C&amp;K000000baserCMS Users Community</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="1" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>